--- a/data/user_enter.xlsx
+++ b/data/user_enter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87BCC7F-C1DA-49AD-9290-F9F9B0AE4A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDB0BE9-7B90-4C26-8DAE-89CDE55358C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
-  <si>
-    <t>בני דוד עלי- מכינה</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="52">
   <si>
     <t>שם</t>
   </si>
@@ -60,128 +57,152 @@
     <t>פלאפון</t>
   </si>
   <si>
-    <t>אביעד מרסיאנו</t>
-  </si>
-  <si>
     <t>מלווה</t>
   </si>
   <si>
     <t>aviadvcux@Gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve"> 052-636-8638</t>
-  </si>
-  <si>
-    <t>אבישי בירמן</t>
-  </si>
-  <si>
-    <t>avishay954@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 052-636-8639</t>
-  </si>
-  <si>
-    <t>אודי רוט</t>
-  </si>
-  <si>
-    <t>נוקדים מגן שאול</t>
-  </si>
-  <si>
-    <t>tush01@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 052-636-8640</t>
-  </si>
-  <si>
-    <t>אורי וינברגר</t>
-  </si>
-  <si>
-    <t>בני דוד מעלה אפרים</t>
-  </si>
-  <si>
     <t>‪oriw18@gmail.com‬‏</t>
   </si>
   <si>
-    <t xml:space="preserve"> 052-636-8641</t>
-  </si>
-  <si>
-    <t>אורי זגדון</t>
-  </si>
-  <si>
-    <t>בני דוד עלי- ישיבה</t>
-  </si>
-  <si>
-    <t>orizig13@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 052-636-8642</t>
-  </si>
-  <si>
-    <t>אחיה אברמוביץ</t>
-  </si>
-  <si>
-    <t>עצמונה</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> achiort@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 052-636-8643</t>
-  </si>
-  <si>
-    <t>איציק אמיתי</t>
-  </si>
-  <si>
-    <t>Morag888@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 052-636-8644</t>
-  </si>
-  <si>
-    <t>איתמר בן יאיר</t>
-  </si>
-  <si>
-    <t>יתיר</t>
-  </si>
-  <si>
-    <t>itamarby83@gmail.com‏</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 052-636-8645</t>
-  </si>
-  <si>
-    <t>איתן שלו</t>
-  </si>
-  <si>
-    <t>eitanshalev3@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 052-636-8646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אלדד ישעיהו </t>
-  </si>
-  <si>
     <t xml:space="preserve">בני דוד דרך אבות </t>
   </si>
   <si>
     <t>eldad8797@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve"> 052-636-8647</t>
-  </si>
-  <si>
     <t>אלדד ישעיהוa</t>
   </si>
   <si>
-    <t xml:space="preserve"> 052-636-8648</t>
+    <t>בני דוד עלי</t>
+  </si>
+  <si>
+    <t>בני דוד הבקעה</t>
+  </si>
+  <si>
+    <t>ינון הדר2</t>
+  </si>
+  <si>
+    <t>ינון הדר1</t>
+  </si>
+  <si>
+    <t>אלדד ישעיהו2</t>
+  </si>
+  <si>
+    <t>אלדד ישעיהו3</t>
+  </si>
+  <si>
+    <t>אלדד ישעיהו4</t>
+  </si>
+  <si>
+    <t>אלדד ישעיהו5</t>
+  </si>
+  <si>
+    <t>אלדד ישעיהו6</t>
+  </si>
+  <si>
+    <t>אלדד ישעיהו7</t>
+  </si>
+  <si>
+    <t>אלדד ישעיהו8</t>
+  </si>
+  <si>
+    <t>אלדד ישעיהו9</t>
+  </si>
+  <si>
+    <t>אלדד ישעיהו10</t>
+  </si>
+  <si>
+    <t>עוז קלי1</t>
+  </si>
+  <si>
+    <t>עוז קלי2</t>
+  </si>
+  <si>
+    <t>עוז קלי3</t>
+  </si>
+  <si>
+    <t>עוז קלי4</t>
+  </si>
+  <si>
+    <t>עוז קלי5</t>
+  </si>
+  <si>
+    <t>עוז קלי6</t>
+  </si>
+  <si>
+    <t>עוז קלי7</t>
+  </si>
+  <si>
+    <t>עוז קלי8</t>
+  </si>
+  <si>
+    <t>עוז קלי9</t>
+  </si>
+  <si>
+    <t>עוז קלי10</t>
+  </si>
+  <si>
+    <t>עוז קלי11</t>
+  </si>
+  <si>
+    <t>עוז קלי12</t>
+  </si>
+  <si>
+    <t>בנציון הדר</t>
+  </si>
+  <si>
+    <t>רכז</t>
+  </si>
+  <si>
+    <t>אגון נוגה</t>
+  </si>
+  <si>
+    <t>בנציון הדר2</t>
+  </si>
+  <si>
+    <t>בנציון הדר3</t>
+  </si>
+  <si>
+    <t>אוריאל הדר</t>
+  </si>
+  <si>
+    <t>אשכול</t>
+  </si>
+  <si>
+    <t>מרכז</t>
+  </si>
+  <si>
+    <t>דרום</t>
+  </si>
+  <si>
+    <t>רכז אשכול</t>
+  </si>
+  <si>
+    <t>אוריאל הדר2</t>
+  </si>
+  <si>
+    <t>אוריאל הדר3</t>
+  </si>
+  <si>
+    <t>סמדר אב</t>
+  </si>
+  <si>
+    <t>לירן גרובס</t>
+  </si>
+  <si>
+    <t>ינונית אישה</t>
+  </si>
+  <si>
+    <t>אחראי תוכנית</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -214,13 +235,24 @@
       <name val="David"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -250,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,6 +297,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,13 +523,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -522,21 +560,23 @@
   <sheetData>
     <row r="1" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -555,21 +595,23 @@
     </row>
     <row r="2" spans="1:21" ht="14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3"/>
+      <c r="E2" s="3">
+        <v>544816491</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -587,22 +629,24 @@
       <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
+      <c r="A3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3"/>
+      <c r="E3" s="3">
+        <v>544816492</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -619,208 +663,828 @@
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:21" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3">
+        <v>544816493</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3">
+        <v>544816494</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3">
+        <v>544816495</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>544816496</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3">
+        <v>544816497</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3">
+        <v>544816498</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3">
+        <v>544816499</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3">
+        <v>544816500</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3">
+        <v>544816501</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3">
+        <v>544816502</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E14" s="3">
+        <v>549247616</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3">
+        <v>544816504</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3">
+        <v>544816505</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3">
+        <v>544816506</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3">
+        <v>544816507</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3">
+        <v>544816508</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3">
+        <v>544816509</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3">
+        <v>544816510</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3">
+        <v>544816511</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="3">
+        <v>544816512</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3">
+        <v>544816513</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3">
+        <v>544816514</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3">
+        <v>523301800</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="3">
+        <v>544816516</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" ht="14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3">
+        <v>544816517</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="3">
+        <v>544816518</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="3">
+        <v>544816519</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="3">
+        <v>544816520</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-    </row>
-    <row r="6" spans="1:21" ht="14" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="3">
+        <v>544816521</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="3">
+        <v>544816522</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="3">
+        <v>544816523</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="3">
+        <v>544816524</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1">
+        <v>543124517</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1">
+        <v>543124511</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="B38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1">
+        <v>543124512</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>44</v>
+      <c r="B39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1">
+        <v>544817648</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1">
+        <v>544817649</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1">
+        <v>544817610</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1">
+        <v>506795170</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1">
+        <v>528827064</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="1">
+        <v>542017565</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/data/user_enter.xlsx
+++ b/data/user_enter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDB0BE9-7B90-4C26-8DAE-89CDE55358C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989BFD7B-4B0F-4F19-86FA-E2F762CF881F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28635" yWindow="-165" windowWidth="29130" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="מספרים ייחודים" sheetId="2" r:id="rId1"/>
@@ -238,6 +238,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -526,10 +527,10 @@
   <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
